--- a/ExcelToXML/Jaffe/input/jaffe_test.xlsx
+++ b/ExcelToXML/Jaffe/input/jaffe_test.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Documents\GitHub\Jaffe_Annotation_Basic\ExcelToXML\Jaffe\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55A01CB-80B7-4E37-A377-523D210EE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E4A361-E260-4A89-99EA-2C84DAEBAA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10290" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>LfdNrNeu</t>
   </si>
@@ -69,9 +64,6 @@
     <t>ALEXANDER III.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>LfdNrFinal</t>
   </si>
   <si>
@@ -96,179 +88,68 @@
     <t>Spalte5</t>
   </si>
   <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>Apr.</t>
-  </si>
-  <si>
     <t>Anagniae</t>
   </si>
   <si>
-    <t>„Pro illis tribulationibus“.</t>
-  </si>
-  <si>
-    <t>(Iohanni) archiepiscopo Toletano eadem, quae praecedente epistola, scribit.</t>
-  </si>
-  <si>
-    <t>Neues Archiv VI. 369.</t>
-  </si>
-  <si>
-    <t>1160 Ar 4.</t>
-  </si>
-  <si>
-    <t>Aaagniar.</t>
-  </si>
-  <si>
-    <t>10629</t>
-  </si>
-  <si>
-    <t>(Iohanni) archiepiscopo Toletano eadem, quae praecedente epistola, scribit. Neues Archiv VI. 369.</t>
-  </si>
-  <si>
-    <t>„In viris ecclesiasticis“.</t>
-  </si>
-  <si>
-    <t>Universis praelatis per Salzburgensem provinciam constitutis mandat, ut nuntios F(riderici) „dicti imperatoris“, quos (Eberhardus) archiepiscopus excommunicaverit vel excommunicaturus sit, in cibo, potu, salutatione, oratione prorsus evitent.</t>
-  </si>
-  <si>
-    <t>Ex origin. in tabul. Vindobon. Misit F. Kaltenbrunner.</t>
-  </si>
-  <si>
-    <t>1160 Ar 12.</t>
-  </si>
-  <si>
-    <t>10630</t>
-  </si>
-  <si>
-    <t>Universis praelatis per Salzburgensem provinciam constitutis mandat, ut nuntios F(riderici) „dicti imperatoris“, quos (Eberhardus) archiepiscopus excommunicaverit vel excommunicaturus sit, in cibo, potu, salutatione, oratione prorsus evitent. Ex origin. in tabul. Vindobon. Misit F. Kaltenbrunner.</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Domus hospitalis Raillonensis protectionem suscipit.</t>
-  </si>
-  <si>
-    <t>(Fragmentum. Clausula est interpolata.)</t>
-  </si>
-  <si>
-    <t>In bibl. nat. Paris. ms. lat. 17126. f. 132b.</t>
-  </si>
-  <si>
-    <t>1160 Mai. 6.</t>
-  </si>
-  <si>
-    <t>10631</t>
-  </si>
-  <si>
-    <t>Domus hospitalis Raillonensis protectionem suscipit. (Fragmentum. Clausula est interpolata.) In bibl. nat. Paris. ms. lat. 17126. f. 132b.</t>
-  </si>
-  <si>
-    <t>Iun.</t>
-  </si>
-  <si>
-    <t>†10632</t>
-  </si>
-  <si>
-    <t>„Ex parte venerabilis“.</t>
-  </si>
-  <si>
-    <t>Lampridio, archiepiscopo Iaderensi, scribit: cognovisse se ex Absalone archiepiscopo Spalatensi, cives Spalatenses iureiurando sanxisse, „ut nulli de civitate eorum liceat aliquas possessiones vel bona immobilia ecclesiae alicui donare, vendere, seu legare“. Quod institutum per „potestatem, consilium et communem civitatis“ illius tollendum curet, praecipit.</t>
-  </si>
-  <si>
-    <t>(„Dat. Viterbii, V. id. Iun., pont. n. a. I.“ Falsarius bullam Alexandri IV. prae oculis habuisse videtur.)</t>
-  </si>
-  <si>
-    <t>Farlatus III. sacr. III. 181, Fejér C. D. H. II. 159.</t>
-  </si>
-  <si>
-    <t>1160 Iun. 9.</t>
-  </si>
-  <si>
-    <t>p10632</t>
-  </si>
-  <si>
-    <t>Lampridio, archiepiscopo Iaderensi, scribit: cognovisse se ex Absalone archiepiscopo Spalatensi, cives Spalatenses iureiurando sanxisse, „ut nulli de civitate eorum liceat aliquas possessiones vel bona immobilia ecclesiae alicui donare, vendere, seu legare“. Quod institutum per „potestatem, consilium et communem civitatis“ illius tollendum curet, praecipit. („Dat. Viterbii, V. id. Iun., pont. n. a. I.“ Falsarius bullam Alexandri IV. prae oculis habuisse videtur.) Farlatus III. sacr. III. 181, Fejér C. D. H. II. 159.</t>
-  </si>
-  <si>
-    <t>Iul.</t>
-  </si>
-  <si>
-    <t>Fratres domus templariorum prope Atrebatum sitae vetat possessiones monasterii S. Vedasti usurpare.</t>
-  </si>
-  <si>
-    <t>Taillar Recherch. p. s. à Thist. de St. Vaast p. 447 teste Wauters Table chronol. II. 423.</t>
-  </si>
-  <si>
-    <t>1160 lul. 31.</t>
-  </si>
-  <si>
-    <t>10633</t>
-  </si>
-  <si>
-    <t>Fratres domus templariorum prope Atrebatum sitae vetat possessiones monasterii S. Vedasti usurpare. Taillar Recherch. p. s. à Thist. de St. Vaast p. 447 teste Wauters Table chronol. II. 423.</t>
-  </si>
-  <si>
-    <t>Oct.</t>
-  </si>
-  <si>
-    <t>Vide Annal. Ceccan. 1160 in MG. SS. XIX. 285: „6. non. Oct. ordinavit Radulfum presbyterum et consecravit eum episcopum in Ferentinensi ecclesia“.</t>
-  </si>
-  <si>
-    <t>1160 Oct. 2.</t>
+    <t>c. Mai. Iun.</t>
+  </si>
+  <si>
+    <t>„Audientes a pluribus“</t>
+  </si>
+  <si>
+    <t>(Michaeli) decano et capitulo Meldensi praecipit, moneant (Simonem) episcopum Meldensem, ut H(erveo) canonico integram Hugonis de Oratorio nuper defuncti praebendam assignet, vel dimidiam eius tandem integret. De negotio (Matthaeo) Trecensi episcopo dato addit.</t>
+  </si>
+  <si>
+    <t>Loewenfeld Epistolae p. 192.</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>1180 c. Mai. Iun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Velletri</t>
+  </si>
+  <si>
+    <t>13663</t>
+  </si>
+  <si>
+    <t>(Michaeli) decano et capitulo Meldensi praecipit, moneant (Simonem) episcopum Meldensem, ut H(erveo) canonico integram Hugonis de Oratorio nuper defuncti praebendam assignet, vel dimidiam eius tandem integret. De negotio (Matthaeo) Trecensi episcopo dato addit. Loewenteld Epistolae p. 192.</t>
+  </si>
+  <si>
+    <t>1160/1173</t>
   </si>
   <si>
     <t>Nov.</t>
   </si>
   <si>
-    <t>„Insolitum ac abominabile“.</t>
-  </si>
-  <si>
-    <t>(Bernardo) Santonensi et (Raimundo) Tolosano episcopis schisma in episcopatu Pampilonensi ortum cognoscendum committit, ubi electorum alter ab archiepiscopo Tarraconensi, alter ab archiepiscopo Toletano consecratus sit.</t>
-  </si>
-  <si>
-    <t>(„In secundo libro domini Al.“)</t>
-  </si>
-  <si>
-    <t>Neues Archiv VI. 295.</t>
-  </si>
-  <si>
-    <t>1160 Nov. 17.</t>
-  </si>
-  <si>
-    <t>10634</t>
-  </si>
-  <si>
-    <t>(Bernardo) Santonensi et (Raimundo) Tolosano episcopis schisma in episcopatu Pampilonensi ortum cognoscendum committit, ubi electorum alter ab archiepiscopo Tarraconensi, alter ab archiepiscopo Toletano consecratus sit. („In secundo libro domini Al.“) Neues Archiv VI. 295.</t>
-  </si>
-  <si>
-    <t>„Religiosis votis“.</t>
-  </si>
-  <si>
-    <t>Monasterium S. Mariae Rievallense tuendum suscipit et eius bona ac iura, petente Aelredo abbate, confirmat.</t>
-  </si>
-  <si>
-    <t>Monast. Anglic. I. 731, nov. ed. V. 283, Migne 200 p. 92.</t>
-  </si>
-  <si>
-    <t>1160 Nov. 20.</t>
-  </si>
-  <si>
-    <t>10635 (7148)</t>
-  </si>
-  <si>
-    <t>Monasterium S. Mariae Rievallense tuendum suscipit et eius bona ac iura, petente Aelredo abbate, confirmat. Monast. Anglic. I. 731, nov. ed. V. 283, Migne 200 p. 92.</t>
-  </si>
-  <si>
-    <t>jup</t>
+    <t xml:space="preserve"> 26?</t>
+  </si>
+  <si>
+    <t>12174α</t>
+  </si>
+  <si>
+    <t>„Licet devotionem“.</t>
+  </si>
+  <si>
+    <t>Lunensem episcopum miratur „ad mandatum et suggestionem Friderici (— non dicimus imperatoris, sed vehementis persecutoris ecclesiae“ —) civibus Ianuensibus apostolicae sedi fidelibus Portum Veneris una cum consulibus Pisanis abstulisse itaque potentiam illius auxisse, qui se ipsum (i. e. papam) de die in diem vehementissime persequi non desisteret. Mandat, a tali praesumptione abstineat et ab obsequio „memorati tiranni“ ulterius se subtrahat.</t>
+  </si>
+  <si>
+    <t>Desimoni Regesti p. 104. (Quae de tempore epistolae profert auctor ibid. p. 67. n. 174, nullius momenti sunt. Ceterum in regesto et in lemmate epist. legitur: Nov. 15; in clausula vero „VI. kal. Dec.“.)</t>
+  </si>
+  <si>
+    <t>1160/1173 Nov. 26?</t>
+  </si>
+  <si>
+    <t>Lunensem episcopum miratur „ad mandatum et suggestionem Friderici (— non dicimus imperatoris, sed vehementis persecutoris ecclesiae“ —) civibus Ianuensibus apostolicae sedi fidelibus Portum Veneris una cum consulibus Pisanis abstulisse itaque potentiam illius auxisse, qui se ipsum (i. e. papam) de die in diem vehementissime persequi non desisteret. Mandat, a tali praesumptione abstineat et ab obsequio „memorati tiranni“ ulterius se subtrahat. Desimoni Regesti p. 104. (Quae de tempore epistolae profert auctor ibid. p. 67. n. 174, nullius momenti sunt. Ceterum in regesto et in lemmate epist. legitur: Nov. 15; in clausula vero „VI. kal. Dec.“.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -294,8 +175,32 @@
       <color theme="0"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +217,23 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -352,32 +274,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Excel Built-in Check Cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Gut 2" xfId="4" xr:uid="{2E514374-4A38-4D47-902A-57C537261E08}"/>
+    <cellStyle name="Schlecht 2" xfId="5" xr:uid="{931E1D0B-7F6C-49E1-8F4A-CD9BB4077C64}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{5549B526-DF92-45A9-8B68-C30F677E336A}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="6" xr:uid="{16C4C281-F083-43B2-9AFF-E20C54C72E77}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,502 +711,364 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>58</v>
+        <v>3233</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>3252</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>3217</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>13663</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="I2">
-        <v>10629</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>59</v>
+        <v>4152</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>4205</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>4150</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>1160</v>
+      <c r="E3" t="s">
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>10630</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1160</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>10631</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="U3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>1160</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>1160</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>10633</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>1160</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>1160</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>10634</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1160</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>10635</v>
-      </c>
-      <c r="J9">
-        <v>7148</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1286,10 +1079,10 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
